--- a/TOR330 Data/100x100trail/TOR330_2022.xlsx
+++ b/TOR330 Data/100x100trail/TOR330_2022.xlsx
@@ -3001,7 +3001,7 @@
     <t>Gadaldi Fabrizio</t>
   </si>
   <si>
-    <t>Locori  Nicolas</t>
+    <t>Locori Nicolas</t>
   </si>
   <si>
     <t>Romestin Paul Henri</t>
@@ -3031,10 +3031,10 @@
     <t>Dezarnaulds Julien</t>
   </si>
   <si>
-    <t>Negro  Mattia</t>
-  </si>
-  <si>
-    <t>Golay-Geymond Florence</t>
+    <t>Negro Mattia</t>
+  </si>
+  <si>
+    <t>Golay Geymond Florence</t>
   </si>
   <si>
     <t>Craveiro Nicolas</t>
@@ -3079,7 +3079,7 @@
     <t>Rossetto Mirko</t>
   </si>
   <si>
-    <t>Delbarba  Stefano</t>
+    <t>Delbarba Stefano</t>
   </si>
   <si>
     <t>Lorenzi Michele</t>
@@ -3115,7 +3115,7 @@
     <t>Imperial Vilmo</t>
   </si>
   <si>
-    <t>Russo  Stefano</t>
+    <t>Russo Stefano</t>
   </si>
   <si>
     <t>Weidman William</t>
@@ -3160,7 +3160,7 @@
     <t>Dalmasso Luca</t>
   </si>
   <si>
-    <t>D Agostino  Maurizio</t>
+    <t>D Agostino Maurizio</t>
   </si>
   <si>
     <t>Pennazio Sebastien</t>
@@ -3214,7 +3214,7 @@
     <t>Alfisi Enrico</t>
   </si>
   <si>
-    <t>Rocchi  Nicola</t>
+    <t>Rocchi Nicola</t>
   </si>
   <si>
     <t>Rolfini Alessandro</t>
@@ -3244,7 +3244,7 @@
     <t>Pirovano Andrea</t>
   </si>
   <si>
-    <t>Navillod  Rinaldo</t>
+    <t>Navillod Rinaldo</t>
   </si>
   <si>
     <t>Turin Nicholas</t>
@@ -3343,7 +3343,7 @@
     <t>Beurrier Regis</t>
   </si>
   <si>
-    <t>Frisoni  Emanuele</t>
+    <t>Frisoni Emanuele</t>
   </si>
   <si>
     <t>Wossning Thomas</t>
@@ -3424,7 +3424,7 @@
     <t>Argelich Torra Enrique</t>
   </si>
   <si>
-    <t>Garcia Hernandez  Fernando</t>
+    <t>Garcia Hernandez Fernando</t>
   </si>
   <si>
     <t>Vigna Gian Luca</t>
@@ -3475,7 +3475,7 @@
     <t>De Marco Enrico</t>
   </si>
   <si>
-    <t>Maier  Frank</t>
+    <t>Maier Frank</t>
   </si>
   <si>
     <t>Shao Sebastien</t>
@@ -3532,7 +3532,7 @@
     <t>Zamboni Matteo</t>
   </si>
   <si>
-    <t>Mariotti  Severino</t>
+    <t>Mariotti Severino</t>
   </si>
   <si>
     <t>Raso Andrea</t>
@@ -3604,7 +3604,7 @@
     <t>Augustson Ketil</t>
   </si>
   <si>
-    <t>Da Costa Veloso  Alexandre</t>
+    <t>Da Costa Veloso Alexandre</t>
   </si>
   <si>
     <t>Le Duigou Sebastien</t>
@@ -3613,13 +3613,13 @@
     <t>Conta Paolo</t>
   </si>
   <si>
-    <t>Waty Jean-Yves</t>
+    <t>Waty Jean Yves</t>
   </si>
   <si>
     <t>Beaumont Olivier</t>
   </si>
   <si>
-    <t>Schwalger  Andreas</t>
+    <t>Schwalger Andreas</t>
   </si>
   <si>
     <t>Nakamura Saki</t>
@@ -3664,7 +3664,7 @@
     <t>Meric Stephanie</t>
   </si>
   <si>
-    <t>Magoni  Paolo</t>
+    <t>Magoni Paolo</t>
   </si>
   <si>
     <t>Rigard Mickael</t>
@@ -3796,13 +3796,13 @@
     <t>Favre Paolo</t>
   </si>
   <si>
-    <t>Breakell  Matthew</t>
+    <t>Breakell Matthew</t>
   </si>
   <si>
     <t>Briere Francois</t>
   </si>
   <si>
-    <t>Andre  Carlos</t>
+    <t>Andre Carlos</t>
   </si>
   <si>
     <t>Mota Joao</t>
@@ -3949,7 +3949,7 @@
     <t>Sivelli Enrico</t>
   </si>
   <si>
-    <t>Pancini  Jonata</t>
+    <t>Pancini Jonata</t>
   </si>
   <si>
     <t>Scotto Busato Raffaella</t>
@@ -3988,7 +3988,7 @@
     <t>Possi Graziano</t>
   </si>
   <si>
-    <t>Celik Seda Nur</t>
+    <t>CeliK Seda Nur</t>
   </si>
   <si>
     <t>Laberenti Gaetano</t>
@@ -4039,7 +4039,7 @@
     <t>Vierin Aline</t>
   </si>
   <si>
-    <t>Nicaise Jean-Baptiste</t>
+    <t>Nicaise Jean Baptiste</t>
   </si>
   <si>
     <t>Fornero Andrea Domenico</t>
@@ -4057,7 +4057,7 @@
     <t>Manzoni Marco</t>
   </si>
   <si>
-    <t>Bessone  Andrea Roberto</t>
+    <t>Bessone Andrea Roberto</t>
   </si>
   <si>
     <t>Tonti Daniele</t>
@@ -4105,7 +4105,7 @@
     <t>Marcos Olivier</t>
   </si>
   <si>
-    <t>Piccioni  Giuseppe</t>
+    <t>Piccioni Giuseppe</t>
   </si>
   <si>
     <t>Paschetto Renzo</t>
@@ -4153,7 +4153,7 @@
     <t>Severino Giovanni</t>
   </si>
   <si>
-    <t>Lloyd-Hughes Torin</t>
+    <t>Lloyd Hughes Torin</t>
   </si>
   <si>
     <t>Borne Aurelien</t>
@@ -4210,7 +4210,7 @@
     <t>Ruiz Laetitia</t>
   </si>
   <si>
-    <t>Le Floch Jean-Pascal</t>
+    <t>Le Floch Jean Pascal</t>
   </si>
   <si>
     <t>Rizzi Mauro</t>
@@ -4228,7 +4228,7 @@
     <t>Godizzi Armanno</t>
   </si>
   <si>
-    <t>Castagneri  Fabrizio</t>
+    <t>Castagneri Fabrizio</t>
   </si>
   <si>
     <t>Taschler Eduard</t>
@@ -4237,7 +4237,7 @@
     <t>Sweeris Esther</t>
   </si>
   <si>
-    <t>Milici  Santino</t>
+    <t>Milici Santino</t>
   </si>
   <si>
     <t>Chabod Benoit</t>
@@ -4261,7 +4261,7 @@
     <t>Rigotti Luca</t>
   </si>
   <si>
-    <t>Ginisty  Thierry</t>
+    <t>Ginisty Thierry</t>
   </si>
   <si>
     <t>Michon Yves</t>
@@ -4294,7 +4294,7 @@
     <t>Mascarin Marc</t>
   </si>
   <si>
-    <t>Gutierrez-Kellam Lourdes</t>
+    <t>Gutierrez Kellam Lourdes</t>
   </si>
   <si>
     <t>Bonel Fabrizio</t>
@@ -4375,7 +4375,7 @@
     <t>Losio Augusto</t>
   </si>
   <si>
-    <t>Taupiac Jean-Pierre</t>
+    <t>Taupiac Jean Pierre</t>
   </si>
   <si>
     <t>Duccini Rocco</t>
@@ -4537,7 +4537,7 @@
     <t>Bertacca Alfredo</t>
   </si>
   <si>
-    <t>Reynard  Christophe</t>
+    <t>Reynard Christophe</t>
   </si>
   <si>
     <t>Micheletti Luciano</t>
@@ -4621,7 +4621,7 @@
     <t>Scolas Etienne</t>
   </si>
   <si>
-    <t>Trzetrzelewska-Lalik Ewa</t>
+    <t>Trzetrzelewska Lalik Ewa</t>
   </si>
   <si>
     <t>Calabrese Domenico</t>
@@ -4681,7 +4681,7 @@
     <t>Aimo Michela</t>
   </si>
   <si>
-    <t>Saint-Eve Jean-Bernard</t>
+    <t>Saint Eve Jean Bernard</t>
   </si>
   <si>
     <t>Bassanelli Veronica</t>
@@ -4774,7 +4774,7 @@
     <t>Van Reen Gijs</t>
   </si>
   <si>
-    <t>Crucitti  Pasqualino</t>
+    <t>Crucitti Pasqualino</t>
   </si>
   <si>
     <t>Di Pasqua Alessandra</t>
@@ -4852,7 +4852,7 @@
     <t>Secondino Axel</t>
   </si>
   <si>
-    <t>Forster  Michael</t>
+    <t>Forster Michael</t>
   </si>
   <si>
     <t>Corso Elia</t>
@@ -4903,7 +4903,7 @@
     <t>Ficek Roman</t>
   </si>
   <si>
-    <t>Juglair  Julien</t>
+    <t>Juglair Julien</t>
   </si>
   <si>
     <t>Nibbio Alessandro</t>
@@ -5002,7 +5002,7 @@
     <t>Corvisiero Michaela</t>
   </si>
   <si>
-    <t>Usanawasin  Sakuna</t>
+    <t>Usanawasin Sakuna</t>
   </si>
   <si>
     <t>Alba Raimondo</t>
@@ -5044,7 +5044,7 @@
     <t>Tsang Mabel</t>
   </si>
   <si>
-    <t>Schumacher  Gabi</t>
+    <t>Schumacher Gabi</t>
   </si>
   <si>
     <t>Lacerra Fiorenzo</t>
@@ -5149,7 +5149,7 @@
     <t>Cheang William</t>
   </si>
   <si>
-    <t>Bihag  Cheryl</t>
+    <t>Bihag Cheryl</t>
   </si>
   <si>
     <t>Yoshimoto Makoto</t>
@@ -5269,7 +5269,7 @@
     <t>Saulo Alberto</t>
   </si>
   <si>
-    <t>Bieller  Didier</t>
+    <t>Bieller Didier</t>
   </si>
   <si>
     <t>Graff Katie</t>
@@ -5431,7 +5431,7 @@
     <t>Baglione Marco</t>
   </si>
   <si>
-    <t>Galvache Oliver  Carlos</t>
+    <t>Galvache Oliver Carlos</t>
   </si>
   <si>
     <t>Knapp Christian</t>
@@ -5482,7 +5482,7 @@
     <t>Bangwiroonrag Wannachai</t>
   </si>
   <si>
-    <t>Rollo  Daniele Stefano</t>
+    <t>Rollo Daniele Stefano</t>
   </si>
   <si>
     <t>Ferrario Giuliana</t>
@@ -5515,7 +5515,7 @@
     <t>Agosti Alessandro</t>
   </si>
   <si>
-    <t>Machet  Dominique</t>
+    <t>Machet Dominique</t>
   </si>
   <si>
     <t>Patrocle Stefano</t>
@@ -5560,7 +5560,7 @@
     <t>Ambrosini Luciano</t>
   </si>
   <si>
-    <t>Estevas-Guilmain Manuel</t>
+    <t>Estevas Guilmain Manuel</t>
   </si>
   <si>
     <t>Bernard Jean Marie</t>
@@ -5593,7 +5593,7 @@
     <t>Tamura Yonehiro</t>
   </si>
   <si>
-    <t>Calabro  Salvatore</t>
+    <t>Calabro Salvatore</t>
   </si>
   <si>
     <t>Tuerlings Eric</t>
@@ -5620,7 +5620,7 @@
     <t>Stasia Manuel</t>
   </si>
   <si>
-    <t>Challancin  Patrick</t>
+    <t>Challancin Patrick</t>
   </si>
   <si>
     <t>Gyalai Zsolt</t>
@@ -5707,7 +5707,7 @@
     <t>Ratelade Thierry</t>
   </si>
   <si>
-    <t>Marziano  Gianfranco</t>
+    <t>Marziano Gianfranco</t>
   </si>
   <si>
     <t>Bonanini Alessio</t>
@@ -5758,7 +5758,7 @@
     <t>Hardouin Monroy Ferdinando</t>
   </si>
   <si>
-    <t>Gogniat  Magali</t>
+    <t>Gogniat Magali</t>
   </si>
   <si>
     <t>Gaida Marco</t>
